--- a/Progress EXITS.xlsx
+++ b/Progress EXITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CAFCA-3BE0-4F50-B5AF-7B27B4C77C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F3034-DDEA-4158-8854-AA8F23EF6C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Minggu Ke-</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>Desain</t>
+  </si>
+  <si>
+    <t>Belum Bisa di Klik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +222,12 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -582,15 +598,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -635,12 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,14 +664,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="60% - Aksen6" xfId="6" builtinId="52"/>
     <cellStyle name="Aksen1" xfId="3" builtinId="29"/>
     <cellStyle name="Aksen2" xfId="4" builtinId="33"/>
     <cellStyle name="Aksen6" xfId="5" builtinId="49"/>
@@ -947,7 +960,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,10 +973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36">
+      <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="30">
@@ -978,7 +991,7 @@
       <c r="F1" s="30">
         <v>5</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="30">
         <v>6</v>
       </c>
       <c r="H1" s="30">
@@ -1005,7 +1018,7 @@
       <c r="O1" s="30">
         <v>14</v>
       </c>
-      <c r="P1" s="32">
+      <c r="P1" s="36">
         <v>15</v>
       </c>
       <c r="R1" s="29" t="s">
@@ -1021,13 +1034,13 @@
       <c r="V1" s="28"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -1036,7 +1049,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="33"/>
+      <c r="P2" s="37"/>
       <c r="R2" s="23" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1083,9 @@
       <c r="S3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="11"/>
+      <c r="T3" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
@@ -1223,8 +1238,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="14"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1280,7 +1295,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1464,7 +1479,9 @@
       <c r="S17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="22"/>
+      <c r="T17" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
@@ -1513,12 +1530,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
@@ -1529,6 +1540,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
